--- a/DataCrowling/2023_allPlayerInfoPlus.xlsx
+++ b/DataCrowling/2023_allPlayerInfoPlus.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="10650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9660" windowHeight="10470" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:H14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5772" uniqueCount="2620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6366" uniqueCount="2621">
   <si>
     <t>rank</t>
   </si>
@@ -7880,6 +7882,10 @@
   </si>
   <si>
     <t>1999년 08월 19일</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8211,8 +8217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL579"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="D335" workbookViewId="0">
+      <selection activeCell="B295" sqref="B295:H343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -26699,4 +26705,2016 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2063</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2065</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2067</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2070</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2071</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2072</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2074</v>
+      </c>
+      <c r="E9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2075</v>
+      </c>
+      <c r="E10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2076</v>
+      </c>
+      <c r="E11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2078</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2079</v>
+      </c>
+      <c r="E13" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2080</v>
+      </c>
+      <c r="E14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2081</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2082</v>
+      </c>
+      <c r="E16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2083</v>
+      </c>
+      <c r="E17" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2084</v>
+      </c>
+      <c r="E18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2085</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2086</v>
+      </c>
+      <c r="E20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>197</v>
+      </c>
+      <c r="B21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2088</v>
+      </c>
+      <c r="E22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" t="s">
+        <v>208</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B24" t="s">
+        <v>215</v>
+      </c>
+      <c r="C24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2091</v>
+      </c>
+      <c r="E24" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>218</v>
+      </c>
+      <c r="B25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2092</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>223</v>
+      </c>
+      <c r="B26" t="s">
+        <v>224</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2093</v>
+      </c>
+      <c r="E26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>228</v>
+      </c>
+      <c r="B27" t="s">
+        <v>229</v>
+      </c>
+      <c r="C27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>235</v>
+      </c>
+      <c r="B28" t="s">
+        <v>236</v>
+      </c>
+      <c r="C28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E28" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>240</v>
+      </c>
+      <c r="B29" t="s">
+        <v>241</v>
+      </c>
+      <c r="C29" t="s">
+        <v>208</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2096</v>
+      </c>
+      <c r="E29" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>243</v>
+      </c>
+      <c r="B30" t="s">
+        <v>244</v>
+      </c>
+      <c r="C30" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2097</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>248</v>
+      </c>
+      <c r="B31" t="s">
+        <v>249</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2098</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>253</v>
+      </c>
+      <c r="B32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2099</v>
+      </c>
+      <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>258</v>
+      </c>
+      <c r="B33" t="s">
+        <v>259</v>
+      </c>
+      <c r="C33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2100</v>
+      </c>
+      <c r="E33" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>263</v>
+      </c>
+      <c r="B34" t="s">
+        <v>264</v>
+      </c>
+      <c r="C34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2101</v>
+      </c>
+      <c r="E34" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>268</v>
+      </c>
+      <c r="B35" t="s">
+        <v>269</v>
+      </c>
+      <c r="C35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2102</v>
+      </c>
+      <c r="E35" t="s">
+        <v>103</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>275</v>
+      </c>
+      <c r="B36" t="s">
+        <v>276</v>
+      </c>
+      <c r="C36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>279</v>
+      </c>
+      <c r="B37" t="s">
+        <v>280</v>
+      </c>
+      <c r="C37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2104</v>
+      </c>
+      <c r="E37" t="s">
+        <v>113</v>
+      </c>
+      <c r="F37" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>284</v>
+      </c>
+      <c r="B38" t="s">
+        <v>285</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2105</v>
+      </c>
+      <c r="E38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>290</v>
+      </c>
+      <c r="B39" t="s">
+        <v>291</v>
+      </c>
+      <c r="C39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2106</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>292</v>
+      </c>
+      <c r="B40" t="s">
+        <v>293</v>
+      </c>
+      <c r="C40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2107</v>
+      </c>
+      <c r="E40" t="s">
+        <v>142</v>
+      </c>
+      <c r="F40" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>298</v>
+      </c>
+      <c r="B41" t="s">
+        <v>299</v>
+      </c>
+      <c r="C41" t="s">
+        <v>165</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2108</v>
+      </c>
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>301</v>
+      </c>
+      <c r="B42" t="s">
+        <v>302</v>
+      </c>
+      <c r="C42" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2109</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>304</v>
+      </c>
+      <c r="B43" t="s">
+        <v>305</v>
+      </c>
+      <c r="C43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2110</v>
+      </c>
+      <c r="E43" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>309</v>
+      </c>
+      <c r="B44" t="s">
+        <v>310</v>
+      </c>
+      <c r="C44" t="s">
+        <v>208</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2111</v>
+      </c>
+      <c r="E44" t="s">
+        <v>113</v>
+      </c>
+      <c r="F44" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>313</v>
+      </c>
+      <c r="B45" t="s">
+        <v>314</v>
+      </c>
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2112</v>
+      </c>
+      <c r="E45" t="s">
+        <v>103</v>
+      </c>
+      <c r="F45" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>319</v>
+      </c>
+      <c r="B46" t="s">
+        <v>320</v>
+      </c>
+      <c r="C46" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2113</v>
+      </c>
+      <c r="E46" t="s">
+        <v>113</v>
+      </c>
+      <c r="F46" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B47" t="s">
+        <v>322</v>
+      </c>
+      <c r="C47" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2114</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>325</v>
+      </c>
+      <c r="B48" t="s">
+        <v>326</v>
+      </c>
+      <c r="C48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2115</v>
+      </c>
+      <c r="E48" t="s">
+        <v>142</v>
+      </c>
+      <c r="F48" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>327</v>
+      </c>
+      <c r="B49" t="s">
+        <v>328</v>
+      </c>
+      <c r="C49" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2116</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2063</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2354</v>
+      </c>
+      <c r="E2" t="s">
+        <v>694</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2355</v>
+      </c>
+      <c r="E3" t="s">
+        <v>694</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2356</v>
+      </c>
+      <c r="E4" t="s">
+        <v>694</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E5" t="s">
+        <v>694</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2358</v>
+      </c>
+      <c r="E6" t="s">
+        <v>694</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2129</v>
+      </c>
+      <c r="E7" t="s">
+        <v>694</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2360</v>
+      </c>
+      <c r="E8" t="s">
+        <v>694</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2361</v>
+      </c>
+      <c r="E9" t="s">
+        <v>694</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2362</v>
+      </c>
+      <c r="E10" t="s">
+        <v>694</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2363</v>
+      </c>
+      <c r="E11" t="s">
+        <v>694</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2364</v>
+      </c>
+      <c r="E12" t="s">
+        <v>694</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E13" t="s">
+        <v>694</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2366</v>
+      </c>
+      <c r="E14" t="s">
+        <v>694</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2367</v>
+      </c>
+      <c r="E15" t="s">
+        <v>694</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2368</v>
+      </c>
+      <c r="E16" t="s">
+        <v>694</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2369</v>
+      </c>
+      <c r="E17" t="s">
+        <v>694</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2370</v>
+      </c>
+      <c r="E18" t="s">
+        <v>694</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2371</v>
+      </c>
+      <c r="E19" t="s">
+        <v>694</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2372</v>
+      </c>
+      <c r="E20" t="s">
+        <v>694</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C21" t="s">
+        <v>208</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2373</v>
+      </c>
+      <c r="E21" t="s">
+        <v>694</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2374</v>
+      </c>
+      <c r="E22" t="s">
+        <v>694</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2375</v>
+      </c>
+      <c r="E23" t="s">
+        <v>694</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2376</v>
+      </c>
+      <c r="E24" t="s">
+        <v>694</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C25" t="s">
+        <v>208</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2377</v>
+      </c>
+      <c r="E25" t="s">
+        <v>694</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E26" t="s">
+        <v>694</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2379</v>
+      </c>
+      <c r="E27" t="s">
+        <v>694</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2380</v>
+      </c>
+      <c r="E28" t="s">
+        <v>694</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2381</v>
+      </c>
+      <c r="E29" t="s">
+        <v>694</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C30" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2382</v>
+      </c>
+      <c r="E30" t="s">
+        <v>694</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2238</v>
+      </c>
+      <c r="E31" t="s">
+        <v>694</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2383</v>
+      </c>
+      <c r="E32" t="s">
+        <v>694</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2384</v>
+      </c>
+      <c r="E33" t="s">
+        <v>694</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2385</v>
+      </c>
+      <c r="E34" t="s">
+        <v>694</v>
+      </c>
+      <c r="F34" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2132</v>
+      </c>
+      <c r="E35" t="s">
+        <v>694</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2386</v>
+      </c>
+      <c r="E36" t="s">
+        <v>694</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2387</v>
+      </c>
+      <c r="E37" t="s">
+        <v>694</v>
+      </c>
+      <c r="F37" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2388</v>
+      </c>
+      <c r="E38" t="s">
+        <v>694</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2389</v>
+      </c>
+      <c r="E39" t="s">
+        <v>694</v>
+      </c>
+      <c r="F39" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C40" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2390</v>
+      </c>
+      <c r="E40" t="s">
+        <v>694</v>
+      </c>
+      <c r="F40" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C41" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2391</v>
+      </c>
+      <c r="E41" t="s">
+        <v>694</v>
+      </c>
+      <c r="F41" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2392</v>
+      </c>
+      <c r="E42" t="s">
+        <v>694</v>
+      </c>
+      <c r="F42" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2393</v>
+      </c>
+      <c r="E43" t="s">
+        <v>694</v>
+      </c>
+      <c r="F43" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2394</v>
+      </c>
+      <c r="E44" t="s">
+        <v>694</v>
+      </c>
+      <c r="F44" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2395</v>
+      </c>
+      <c r="E45" t="s">
+        <v>694</v>
+      </c>
+      <c r="F45" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C46" t="s">
+        <v>208</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2396</v>
+      </c>
+      <c r="E46" t="s">
+        <v>694</v>
+      </c>
+      <c r="F46" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C47" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2397</v>
+      </c>
+      <c r="E47" t="s">
+        <v>694</v>
+      </c>
+      <c r="F47" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C48" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2398</v>
+      </c>
+      <c r="E48" t="s">
+        <v>694</v>
+      </c>
+      <c r="F48" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C49" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2399</v>
+      </c>
+      <c r="E49" t="s">
+        <v>694</v>
+      </c>
+      <c r="F49" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C50" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2400</v>
+      </c>
+      <c r="E50" t="s">
+        <v>694</v>
+      </c>
+      <c r="F50" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>